--- a/out/sds_error.xlsx
+++ b/out/sds_error.xlsx
@@ -1,37 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\QCseek\out\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P00001-P10000\P00751</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2020.11.10SYMR003,SYMR004,SYMR005-重做.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P00001-P10000\P01462</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2021.02.16KY001.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P00001-P10000\P05832</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2021.06.08SYPX03.HH001.HZ005.AKX001-1.AKX001-2.AKX001-3.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P10001-P20000\P12625</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2021.10.14 SHL001，SYDX-N014.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P10001-P20000\P14518</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2021.12.17 SYDX012 MY001 AT001 SYPX17 SYDX-S011 CM019 SYZJ002 BSD002 IMG-010 XYD003  AT001 SYDX-S014.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P20001-P30000\P25117</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2022.02.02QHNL001，YDZY001，SYDX038，SYDX024，SYDX-S090，SYDX-N020，HM002，LK004，TJL016，HIT001，LK002.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P30001-P40000\P31701</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2022.02.28 ZSH008 RF001 SYDX042 SYDX012 DX006 SYDX035 DJ001 SY01.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P30001-P40000\P35937</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】 2022.05.02 SYDX033 SYDX-B023 MY001 SYDX052 YEN002.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P50001-P59999\P50859</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】 2022.08.22 AT001 SYDX007 LK001 HH001.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P50001-P59999\P57158</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2022.09.10 SYMX02 SYDX012 XLT002 BC001 RSPL001 SYMX01  SYDX075.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P60000-P69999\P63363</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2022.10.18 SYDX-S011 YEN007.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P60000-P69999\P67739</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2022.10.25.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P70000-P79999\P74804</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2022.11.29 KYJY003 XYD003 DANX003 XLT001 CT005.pptx</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +148,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,37 +472,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>path</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/out/sds_error.xlsx
+++ b/out/sds_error.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\QCseek\out\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P00001-P10000\P00751</t>
-  </si>
-  <si>
-    <t>【SDS-PAGE】2020.11.10SYMR003,SYMR004,SYMR005-重做.pptx</t>
-  </si>
-  <si>
-    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P00001-P10000\P01462</t>
-  </si>
-  <si>
-    <t>【SDS-PAGE】2021.02.16KY001.pptx</t>
-  </si>
-  <si>
-    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P00001-P10000\P05832</t>
-  </si>
-  <si>
-    <t>【SDS-PAGE】2021.06.08SYPX03.HH001.HZ005.AKX001-1.AKX001-2.AKX001-3.pptx</t>
-  </si>
-  <si>
-    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P10001-P20000\P12625</t>
-  </si>
-  <si>
-    <t>【SDS-PAGE】2021.10.14 SHL001，SYDX-N014.pptx</t>
-  </si>
-  <si>
-    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P10001-P20000\P14518</t>
-  </si>
-  <si>
-    <t>【SDS-PAGE】2021.12.17 SYDX012 MY001 AT001 SYPX17 SYDX-S011 CM019 SYZJ002 BSD002 IMG-010 XYD003  AT001 SYDX-S014.pptx</t>
-  </si>
-  <si>
-    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P20001-P30000\P25117</t>
-  </si>
-  <si>
-    <t>【SDS-PAGE】2022.02.02QHNL001，YDZY001，SYDX038，SYDX024，SYDX-S090，SYDX-N020，HM002，LK004，TJL016，HIT001，LK002.pptx</t>
-  </si>
-  <si>
-    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P30001-P40000\P31701</t>
-  </si>
-  <si>
-    <t>【SDS-PAGE】2022.02.28 ZSH008 RF001 SYDX042 SYDX012 DX006 SYDX035 DJ001 SY01.pptx</t>
-  </si>
-  <si>
-    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P30001-P40000\P35937</t>
-  </si>
-  <si>
-    <t>【SDS-PAGE】 2022.05.02 SYDX033 SYDX-B023 MY001 SYDX052 YEN002.pptx</t>
-  </si>
-  <si>
-    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P50001-P59999\P50859</t>
-  </si>
-  <si>
-    <t>【SDS-PAGE】 2022.08.22 AT001 SYDX007 LK001 HH001.pptx</t>
-  </si>
-  <si>
-    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P50001-P59999\P57158</t>
-  </si>
-  <si>
-    <t>【SDS-PAGE】2022.09.10 SYMX02 SYDX012 XLT002 BC001 RSPL001 SYMX01  SYDX075.pptx</t>
-  </si>
-  <si>
-    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P60000-P69999\P63363</t>
-  </si>
-  <si>
-    <t>【SDS-PAGE】2022.10.18 SYDX-S011 YEN007.pptx</t>
-  </si>
-  <si>
-    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P60000-P69999\P67739</t>
-  </si>
-  <si>
-    <t>【SDS-PAGE】2022.10.25.pptx</t>
-  </si>
-  <si>
-    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P70000-P79999\P74804</t>
-  </si>
-  <si>
-    <t>【SDS-PAGE】2022.11.29 KYJY003 XYD003 DANX003 XLT001 CT005.pptx</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,130 +420,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P30001-P40000\P31701</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>【SDS-PAGE】2022.02.28 ZSH008 RF001 SYDX042 SYDX012 DX006 SYDX035 DJ001 SY01.pptx</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BadZipFile(File is not a zip file)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P30001-P40000\P35937</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>【SDS-PAGE】 2022.05.02 SYDX033 SYDX-B023 MY001 SYDX052 YEN002.pptx</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BadZipFile(File is not a zip file)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P50001-P59999\P50859</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>【SDS-PAGE】 2022.08.22 AT001 SYDX007 LK001 HH001.pptx</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BadZipFile(File is not a zip file)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P50001-P59999\P57158</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>【SDS-PAGE】2022.09.10 SYMX02 SYDX012 XLT002 BC001 RSPL001 SYMX01  SYDX075.pptx</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BadZipFile(File is not a zip file)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P60000-P69999\P63363</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>【SDS-PAGE】2022.10.18 SYDX-S011 YEN007.pptx</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BadZipFile(File is not a zip file)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P60000-P69999\P67739</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>【SDS-PAGE】2022.10.25.pptx</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BadZipFile(File is not a zip file)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P70000-P79999\P74804</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>【SDS-PAGE】2022.11.29 KYJY003 XYD003 DANX003 XLT001 CT005.pptx</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BadZipFile(File is not a zip file)</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/out/sds_error.xlsx
+++ b/out/sds_error.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,125 +450,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P30001-P40000\P31701</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>【SDS-PAGE】2022.02.28 ZSH008 RF001 SYDX042 SYDX012 DX006 SYDX035 DJ001 SY01.pptx</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BadZipFile(File is not a zip file)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P30001-P40000\P35937</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>【SDS-PAGE】 2022.05.02 SYDX033 SYDX-B023 MY001 SYDX052 YEN002.pptx</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BadZipFile(File is not a zip file)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P50001-P59999\P50859</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>【SDS-PAGE】 2022.08.22 AT001 SYDX007 LK001 HH001.pptx</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BadZipFile(File is not a zip file)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P50001-P59999\P57158</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>【SDS-PAGE】2022.09.10 SYMX02 SYDX012 XLT002 BC001 RSPL001 SYMX01  SYDX075.pptx</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BadZipFile(File is not a zip file)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P60000-P69999\P63363</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>【SDS-PAGE】2022.10.18 SYDX-S011 YEN007.pptx</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BadZipFile(File is not a zip file)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P60000-P69999\P67739</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>【SDS-PAGE】2022.10.25.pptx</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>BadZipFile(File is not a zip file)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P70000-P79999\P74804</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>【SDS-PAGE】2022.11.29 KYJY003 XYD003 DANX003 XLT001 CT005.pptx</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BadZipFile(File is not a zip file)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/out/sds_error.xlsx
+++ b/out/sds_error.xlsx
@@ -1,37 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\QCseek\out\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P00001-P10000\P00754</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2020.11.10SYMR003,SYMR004,SYMR005-重做.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P00001-P10000\P00835</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2020.1209KT001.HR05.SYDX-S102.SYDX-S110.SYDX012.SYBC-B001.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P00001-P10000\P01462</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2021.02.16KY001.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P10001-P20000\P14972</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】 2022.05.07 SYDX039 SYDX033 XYD001 BC001 YDZY001 ZDFH001 SYDX030 SYDX-N014 YL001 MY001 PF002 DJ001 DJ002 SYDX032.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P30001-P40000\P31701</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2022.02.28 ZSH008 RF001 SYDX042 SYDX012 DX006 SYDX035 DJ001 SY01.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P30001-P40000\P35937</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】 2022.05.02 SYDX033 SYDX-B023 MY001 SYDX052 YEN002.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P50001-P59999\P50859</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】 2022.08.22 AT001 SYDX007 LK001 HH001.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P50001-P59999\P57158</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2022.09.10 SYMX02 SYDX012 XLT002 BC001 RSPL001 SYMX01  SYDX075.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P60000-P69999\P63363</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2022.10.18 SYDX-S011 YEN007.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P60000-P69999\P67739</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2022.10.25.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P70000-P79999\P71529</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2022.11.18 THP001 AT-CX XWD009 LK004.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P70000-P79999\P72577-P72591</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2022.11.23 THP001 XLT002 SYMX02 SYDX024 DANX002 SIP006 LK002 SYDX-B014.pptx</t>
+  </si>
+  <si>
+    <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\P70000-P79999\P74804</t>
+  </si>
+  <si>
+    <t>【SDS-PAGE】2022.11.29 KYJY003 XYD003 DANX003 XLT001 CT005.pptx</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +148,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,37 +472,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="57.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>path</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>